--- a/biology/Histoire de la zoologie et de la botanique/Peter_Chalmers_Mitchell/Peter_Chalmers_Mitchell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_Chalmers_Mitchell/Peter_Chalmers_Mitchell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Chalmers Mitchell, né le 23 novembre 1864 à Dunfermline (en Écosse) et mort le 2 juillet 1945 à Londres, est un zoologiste britannique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Chalmers Mitchell, né le 23 novembre 1864 à Dunfermline (en Écosse) et mort le 2 juillet 1945 à Londres, est un zoologiste britannique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Société zoologique de Londres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Chalmers Mitchell fut secrétaire de la Société zoologique de Londres de 1903 à 1935. Durant cette période, sa fonction le conduit à diriger le Zoo de Londres.
-Pour fêter son centenaire, la Société zoologique (fondée en avril 1826) décida de créer un second parc zoologique. Après qu'une visite au Zoo du Bronx à New York lui en ait donné l’idée, Mitchell trouva un site dans le Bedfordshire qui convenait pour l'aménager en tant que centre de conservation à proximité de Londres[2],[3].
+Pour fêter son centenaire, la Société zoologique (fondée en avril 1826) décida de créer un second parc zoologique. Après qu'une visite au Zoo du Bronx à New York lui en ait donné l’idée, Mitchell trouva un site dans le Bedfordshire qui convenait pour l'aménager en tant que centre de conservation à proximité de Londres,.
 Le Whipsnade Wild Animal Park fut ouvert au public le 23 mai 1931 sur une étendue de 240 hectares.
 </t>
         </is>
@@ -544,11 +558,13 @@
           <t>Systématique phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Chalmers Mitchell est considéré comme un précurseur dans l'invention des concepts de la méthode cladistique du fait qu'il élabora, en 1901, une phylogénie des Oiseaux à partir des caractéristiques de leur tractus intestinal[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Chalmers Mitchell est considéré comme un précurseur dans l'invention des concepts de la méthode cladistique du fait qu'il élabora, en 1901, une phylogénie des Oiseaux à partir des caractéristiques de leur tractus intestinal.
 Un demi-siècle avant que Willi Hennig ne publia sa Theorie der phylogenischen Systematik (1950), Mitchell faisait clairement la distinction entre caractères primitifs et dérivés qu'il appelait « archecentric » et « apocentric » (correspondant à plésiomorphe et apomorphe dans la terminologie hennigienne).
-Il distinguait également les caractères dérivés et les caractères convergents, en reconnaissant que les caractères primitifs partagés ne pouvaient pas à l'évidence être utilisés pour établir des relations évolutives[5].
+Il distinguait également les caractères dérivés et les caractères convergents, en reconnaissant que les caractères primitifs partagés ne pouvaient pas à l'évidence être utilisés pour établir des relations évolutives.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Peter Chalmers Mitchell, « VII. On the intestinal tract of birds : With remarks on the valuation and nomenclature of zoological characters », Transactions of the Linnean Society of London - Zoology, 2e série, vol. 8, no 7,‎ 1er octobre 1901, p. 173-275 (ISSN 1945-9343, DOI 10.1111/j.1096-3642.1901.tb00477.x, lire en ligne).</t>
         </is>
